--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/DesignMasks/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/DesignMasks/LocalizationDef.xlsx
@@ -280,10 +280,10 @@
     <t>DesignMaskCrystals.Description.Details</t>
   </si>
   <si>
-    <t>These mineral deposits interfere with targeting systems. +4 Difficulty to hit units within a Mineral Field. +2 Difficulty for attacks made by units within a Mineral Field. Reduces enemy detection.</t>
-  </si>
-  <si>
-    <t>Эти залежи минералов вмешиваются в работу систем наведения. На 4 сложнее попасть по юнитам, стоящим внутри; на 2 сложнее попадать, находясь внутри. Снижает обнаружение врагов.</t>
+    <t>These mineral deposits interfere with targeting systems. +3 Difficulty to hit units within a Mineral Field. +2 Difficulty for attacks made by units within a Mineral Field.</t>
+  </si>
+  <si>
+    <t>Эти залежи минералов вмешиваются в работу систем наведения. На 3 сложнее попасть по юнитам, стоящим внутри; на 2 сложнее попадать, находясь внутри.</t>
   </si>
   <si>
     <t>DesignMaskCrystals.Description.Name</t>
@@ -732,12 +732,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -752,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -761,6 +766,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1057,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,17 +1552,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+    <row r="35" s="8" customFormat="1">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/DesignMasks/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/DesignMasks/LocalizationDef.xlsx
@@ -732,17 +732,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -757,17 +752,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,1190 +1056,1191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1" style="2"/>
-    <col min="2" max="2" width="57" customWidth="1" style="2"/>
-    <col min="3" max="3" width="57" customWidth="1" style="3"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1" style="6"/>
+    <col min="2" max="2" width="57" customWidth="1" style="6"/>
+    <col min="3" max="3" width="57" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1">
-      <c r="A35" s="9" t="s">
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1">
+      <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="6" t="s">
         <v>3</v>
       </c>
     </row>
